--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.060898</v>
+        <v>1.141346</v>
       </c>
       <c r="H2">
-        <v>3.182694</v>
+        <v>3.424038</v>
       </c>
       <c r="I2">
-        <v>0.08679151083779232</v>
+        <v>0.07840323688201205</v>
       </c>
       <c r="J2">
-        <v>0.08679151083779232</v>
+        <v>0.07840323688201206</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.455973333333334</v>
+        <v>6.673575666666667</v>
       </c>
       <c r="N2">
-        <v>28.36792</v>
+        <v>20.020727</v>
       </c>
       <c r="O2">
-        <v>0.2068547005114229</v>
+        <v>0.1592723389521969</v>
       </c>
       <c r="P2">
-        <v>0.2068547005114229</v>
+        <v>0.1592723389521969</v>
       </c>
       <c r="Q2">
-        <v>10.03182319738667</v>
+        <v>7.616858892847334</v>
       </c>
       <c r="R2">
-        <v>90.28640877648</v>
+        <v>68.55173003562601</v>
       </c>
       <c r="S2">
-        <v>0.01795323198128545</v>
+        <v>0.01248746691962121</v>
       </c>
       <c r="T2">
-        <v>0.01795323198128545</v>
+        <v>0.01248746691962121</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.060898</v>
+        <v>1.141346</v>
       </c>
       <c r="H3">
-        <v>3.182694</v>
+        <v>3.424038</v>
       </c>
       <c r="I3">
-        <v>0.08679151083779232</v>
+        <v>0.07840323688201205</v>
       </c>
       <c r="J3">
-        <v>0.08679151083779232</v>
+        <v>0.07840323688201206</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>85.957729</v>
       </c>
       <c r="O3">
-        <v>0.6267911178872841</v>
+        <v>0.683825744632005</v>
       </c>
       <c r="P3">
-        <v>0.6267911178872843</v>
+        <v>0.6838257446320051</v>
       </c>
       <c r="Q3">
-        <v>30.39746092688067</v>
+        <v>32.70250338774466</v>
       </c>
       <c r="R3">
-        <v>273.577148341926</v>
+        <v>294.322530489702</v>
       </c>
       <c r="S3">
-        <v>0.05440014810114619</v>
+        <v>0.05361415184240136</v>
       </c>
       <c r="T3">
-        <v>0.0544001481011462</v>
+        <v>0.05361415184240138</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.060898</v>
+        <v>1.141346</v>
       </c>
       <c r="H4">
-        <v>3.182694</v>
+        <v>3.424038</v>
       </c>
       <c r="I4">
-        <v>0.08679151083779232</v>
+        <v>0.07840323688201205</v>
       </c>
       <c r="J4">
-        <v>0.08679151083779232</v>
+        <v>0.07840323688201206</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1785286666666667</v>
+        <v>0.2748103333333333</v>
       </c>
       <c r="N4">
-        <v>0.535586</v>
+        <v>0.824431</v>
       </c>
       <c r="O4">
-        <v>0.003905414342260938</v>
+        <v>0.006558655620982129</v>
       </c>
       <c r="P4">
-        <v>0.003905414342260939</v>
+        <v>0.006558655620982129</v>
       </c>
       <c r="Q4">
-        <v>0.1894007054093333</v>
+        <v>0.3136536747086667</v>
       </c>
       <c r="R4">
-        <v>1.704606348684</v>
+        <v>2.822883072378</v>
       </c>
       <c r="S4">
-        <v>0.0003389568112124098</v>
+        <v>0.0005142198302794017</v>
       </c>
       <c r="T4">
-        <v>0.0003389568112124098</v>
+        <v>0.0005142198302794018</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.060898</v>
+        <v>1.141346</v>
       </c>
       <c r="H5">
-        <v>3.182694</v>
+        <v>3.424038</v>
       </c>
       <c r="I5">
-        <v>0.08679151083779232</v>
+        <v>0.07840323688201205</v>
       </c>
       <c r="J5">
-        <v>0.08679151083779232</v>
+        <v>0.07840323688201206</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.112385333333333</v>
+        <v>5.865251333333333</v>
       </c>
       <c r="N5">
-        <v>21.337156</v>
+        <v>17.595754</v>
       </c>
       <c r="O5">
-        <v>0.1555874034524036</v>
+        <v>0.1399807756834942</v>
       </c>
       <c r="P5">
-        <v>0.1555874034524036</v>
+        <v>0.1399807756834942</v>
       </c>
       <c r="Q5">
-        <v>7.545515375362667</v>
+        <v>6.694281148294666</v>
       </c>
       <c r="R5">
-        <v>67.90963837826401</v>
+        <v>60.248530334652</v>
       </c>
       <c r="S5">
-        <v>0.01350366581296325</v>
+        <v>0.01097494591484078</v>
       </c>
       <c r="T5">
-        <v>0.01350366581296325</v>
+        <v>0.01097494591484079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.060898</v>
+        <v>1.141346</v>
       </c>
       <c r="H6">
-        <v>3.182694</v>
+        <v>3.424038</v>
       </c>
       <c r="I6">
-        <v>0.08679151083779232</v>
+        <v>0.07840323688201205</v>
       </c>
       <c r="J6">
-        <v>0.08679151083779232</v>
+        <v>0.07840323688201206</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3136543333333333</v>
+        <v>0.4341923333333333</v>
       </c>
       <c r="N6">
-        <v>0.940963</v>
+        <v>1.302577</v>
       </c>
       <c r="O6">
-        <v>0.006861363806628402</v>
+        <v>0.01036248511132167</v>
       </c>
       <c r="P6">
-        <v>0.006861363806628403</v>
+        <v>0.01036248511132167</v>
       </c>
       <c r="Q6">
-        <v>0.3327552549246667</v>
+        <v>0.4955636828806666</v>
       </c>
       <c r="R6">
-        <v>2.994797294322</v>
+        <v>4.460073145926</v>
       </c>
       <c r="S6">
-        <v>0.0005955081311850249</v>
+        <v>0.000812452374869276</v>
       </c>
       <c r="T6">
-        <v>0.000595508131185025</v>
+        <v>0.0008124523748692763</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.179600000000001</v>
       </c>
       <c r="I7">
-        <v>0.1412467895234129</v>
+        <v>0.118601898037951</v>
       </c>
       <c r="J7">
-        <v>0.1412467895234129</v>
+        <v>0.118601898037951</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.455973333333334</v>
+        <v>6.673575666666667</v>
       </c>
       <c r="N7">
-        <v>28.36792</v>
+        <v>20.020727</v>
       </c>
       <c r="O7">
-        <v>0.2068547005114229</v>
+        <v>0.1592723389521969</v>
       </c>
       <c r="P7">
-        <v>0.2068547005114229</v>
+        <v>0.1592723389521969</v>
       </c>
       <c r="Q7">
-        <v>16.32605315911112</v>
+        <v>11.52215084102222</v>
       </c>
       <c r="R7">
-        <v>146.934478432</v>
+        <v>103.6993575692</v>
       </c>
       <c r="S7">
-        <v>0.02921756234506556</v>
+        <v>0.01889000170467443</v>
       </c>
       <c r="T7">
-        <v>0.02921756234506557</v>
+        <v>0.01889000170467444</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.179600000000001</v>
       </c>
       <c r="I8">
-        <v>0.1412467895234129</v>
+        <v>0.118601898037951</v>
       </c>
       <c r="J8">
-        <v>0.1412467895234129</v>
+        <v>0.118601898037951</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>85.957729</v>
       </c>
       <c r="O8">
-        <v>0.6267911178872841</v>
+        <v>0.683825744632005</v>
       </c>
       <c r="P8">
-        <v>0.6267911178872843</v>
+        <v>0.6838257446320051</v>
       </c>
       <c r="Q8">
         <v>49.46962812537778</v>
@@ -948,10 +948,10 @@
         <v>445.2266531284001</v>
       </c>
       <c r="S8">
-        <v>0.08853223310336991</v>
+        <v>0.08110303124057097</v>
       </c>
       <c r="T8">
-        <v>0.08853223310336994</v>
+        <v>0.081103031240571</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>5.179600000000001</v>
       </c>
       <c r="I9">
-        <v>0.1412467895234129</v>
+        <v>0.118601898037951</v>
       </c>
       <c r="J9">
-        <v>0.1412467895234129</v>
+        <v>0.118601898037951</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1785286666666667</v>
+        <v>0.2748103333333333</v>
       </c>
       <c r="N9">
-        <v>0.535586</v>
+        <v>0.824431</v>
       </c>
       <c r="O9">
-        <v>0.003905414342260938</v>
+        <v>0.006558655620982129</v>
       </c>
       <c r="P9">
-        <v>0.003905414342260939</v>
+        <v>0.006558655620982129</v>
       </c>
       <c r="Q9">
-        <v>0.3082356939555556</v>
+        <v>0.4744692008444444</v>
       </c>
       <c r="R9">
-        <v>2.7741212456</v>
+        <v>4.270222807600001</v>
       </c>
       <c r="S9">
-        <v>0.0005516272376030488</v>
+        <v>0.0007778690052257566</v>
       </c>
       <c r="T9">
-        <v>0.000551627237603049</v>
+        <v>0.0007778690052257568</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.179600000000001</v>
       </c>
       <c r="I10">
-        <v>0.1412467895234129</v>
+        <v>0.118601898037951</v>
       </c>
       <c r="J10">
-        <v>0.1412467895234129</v>
+        <v>0.118601898037951</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.112385333333333</v>
+        <v>5.865251333333333</v>
       </c>
       <c r="N10">
-        <v>21.337156</v>
+        <v>17.595754</v>
       </c>
       <c r="O10">
-        <v>0.1555874034524036</v>
+        <v>0.1399807756834942</v>
       </c>
       <c r="P10">
-        <v>0.1555874034524036</v>
+        <v>0.1399807756834942</v>
       </c>
       <c r="Q10">
-        <v>12.27977035751111</v>
+        <v>10.12655193537778</v>
       </c>
       <c r="R10">
-        <v>110.5179332176</v>
+        <v>91.13896741840001</v>
       </c>
       <c r="S10">
-        <v>0.02197622122793598</v>
+        <v>0.01660198568488706</v>
       </c>
       <c r="T10">
-        <v>0.02197622122793598</v>
+        <v>0.01660198568488707</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.179600000000001</v>
       </c>
       <c r="I11">
-        <v>0.1412467895234129</v>
+        <v>0.118601898037951</v>
       </c>
       <c r="J11">
-        <v>0.1412467895234129</v>
+        <v>0.118601898037951</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3136543333333333</v>
+        <v>0.4341923333333333</v>
       </c>
       <c r="N11">
-        <v>0.940963</v>
+        <v>1.302577</v>
       </c>
       <c r="O11">
-        <v>0.006861363806628402</v>
+        <v>0.01036248511132167</v>
       </c>
       <c r="P11">
-        <v>0.006861363806628403</v>
+        <v>0.01036248511132167</v>
       </c>
       <c r="Q11">
-        <v>0.5415346616444444</v>
+        <v>0.7496475365777777</v>
       </c>
       <c r="R11">
-        <v>4.873811954800001</v>
+        <v>6.7468278292</v>
       </c>
       <c r="S11">
-        <v>0.000969145609438405</v>
+        <v>0.001229010402592758</v>
       </c>
       <c r="T11">
-        <v>0.0009691456094384054</v>
+        <v>0.001229010402592759</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.138096</v>
+        <v>4.821393333333334</v>
       </c>
       <c r="H12">
-        <v>9.414287999999999</v>
+        <v>14.46418</v>
       </c>
       <c r="I12">
-        <v>0.2567259934452065</v>
+        <v>0.331199166260439</v>
       </c>
       <c r="J12">
-        <v>0.2567259934452065</v>
+        <v>0.3311991662604391</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.455973333333334</v>
+        <v>6.673575666666667</v>
       </c>
       <c r="N12">
-        <v>28.36792</v>
+        <v>20.020727</v>
       </c>
       <c r="O12">
-        <v>0.2068547005114229</v>
+        <v>0.1592723389521969</v>
       </c>
       <c r="P12">
-        <v>0.2068547005114229</v>
+        <v>0.1592723389521969</v>
       </c>
       <c r="Q12">
-        <v>29.67375209344</v>
+        <v>32.17593322876223</v>
       </c>
       <c r="R12">
-        <v>267.06376884096</v>
+        <v>289.58339905886</v>
       </c>
       <c r="S12">
-        <v>0.05310497848760571</v>
+        <v>0.05275086586931768</v>
       </c>
       <c r="T12">
-        <v>0.05310497848760571</v>
+        <v>0.05275086586931769</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.138096</v>
+        <v>4.821393333333334</v>
       </c>
       <c r="H13">
-        <v>9.414287999999999</v>
+        <v>14.46418</v>
       </c>
       <c r="I13">
-        <v>0.2567259934452065</v>
+        <v>0.331199166260439</v>
       </c>
       <c r="J13">
-        <v>0.2567259934452065</v>
+        <v>0.3311991662604391</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>85.957729</v>
       </c>
       <c r="O13">
-        <v>0.6267911178872841</v>
+        <v>0.683825744632005</v>
       </c>
       <c r="P13">
-        <v>0.6267911178872843</v>
+        <v>0.6838257446320051</v>
       </c>
       <c r="Q13">
-        <v>89.91453518132798</v>
+        <v>138.1453405163578</v>
       </c>
       <c r="R13">
-        <v>809.2308166319519</v>
+        <v>1243.30806464722</v>
       </c>
       <c r="S13">
-        <v>0.1609135724222446</v>
+        <v>0.226482516489544</v>
       </c>
       <c r="T13">
-        <v>0.1609135724222446</v>
+        <v>0.226482516489544</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.138096</v>
+        <v>4.821393333333334</v>
       </c>
       <c r="H14">
-        <v>9.414287999999999</v>
+        <v>14.46418</v>
       </c>
       <c r="I14">
-        <v>0.2567259934452065</v>
+        <v>0.331199166260439</v>
       </c>
       <c r="J14">
-        <v>0.2567259934452065</v>
+        <v>0.3311991662604391</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1785286666666667</v>
+        <v>0.2748103333333333</v>
       </c>
       <c r="N14">
-        <v>0.535586</v>
+        <v>0.824431</v>
       </c>
       <c r="O14">
-        <v>0.003905414342260938</v>
+        <v>0.006558655620982129</v>
       </c>
       <c r="P14">
-        <v>0.003905414342260939</v>
+        <v>0.006558655620982129</v>
       </c>
       <c r="Q14">
-        <v>0.5602400947519999</v>
+        <v>1.324968709064445</v>
       </c>
       <c r="R14">
-        <v>5.042160852767999</v>
+        <v>11.92471838158</v>
       </c>
       <c r="S14">
-        <v>0.001002621376832097</v>
+        <v>0.002172221273458623</v>
       </c>
       <c r="T14">
-        <v>0.001002621376832097</v>
+        <v>0.002172221273458624</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.138096</v>
+        <v>4.821393333333334</v>
       </c>
       <c r="H15">
-        <v>9.414287999999999</v>
+        <v>14.46418</v>
       </c>
       <c r="I15">
-        <v>0.2567259934452065</v>
+        <v>0.331199166260439</v>
       </c>
       <c r="J15">
-        <v>0.2567259934452065</v>
+        <v>0.3311991662604391</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.112385333333333</v>
+        <v>5.865251333333333</v>
       </c>
       <c r="N15">
-        <v>21.337156</v>
+        <v>17.595754</v>
       </c>
       <c r="O15">
-        <v>0.1555874034524036</v>
+        <v>0.1399807756834942</v>
       </c>
       <c r="P15">
-        <v>0.1555874034524036</v>
+        <v>0.1399807756834942</v>
       </c>
       <c r="Q15">
-        <v>22.31934796499199</v>
+        <v>28.27868367685778</v>
       </c>
       <c r="R15">
-        <v>200.874131684928</v>
+        <v>254.50815309172</v>
       </c>
       <c r="S15">
-        <v>0.03994333071887847</v>
+        <v>0.0463615161988628</v>
       </c>
       <c r="T15">
-        <v>0.03994333071887847</v>
+        <v>0.04636151619886282</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.138096</v>
+        <v>4.821393333333334</v>
       </c>
       <c r="H16">
-        <v>9.414287999999999</v>
+        <v>14.46418</v>
       </c>
       <c r="I16">
-        <v>0.2567259934452065</v>
+        <v>0.331199166260439</v>
       </c>
       <c r="J16">
-        <v>0.2567259934452065</v>
+        <v>0.3311991662604391</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3136543333333333</v>
+        <v>0.4341923333333333</v>
       </c>
       <c r="N16">
-        <v>0.940963</v>
+        <v>1.302577</v>
       </c>
       <c r="O16">
-        <v>0.006861363806628402</v>
+        <v>0.01036248511132167</v>
       </c>
       <c r="P16">
-        <v>0.006861363806628403</v>
+        <v>0.01036248511132167</v>
       </c>
       <c r="Q16">
-        <v>0.9842774088159998</v>
+        <v>2.093412021317778</v>
       </c>
       <c r="R16">
-        <v>8.858496679343999</v>
+        <v>18.84070819186</v>
       </c>
       <c r="S16">
-        <v>0.00176149043964566</v>
+        <v>0.00343204642925595</v>
       </c>
       <c r="T16">
-        <v>0.00176149043964566</v>
+        <v>0.003432046429255952</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.484315333333333</v>
+        <v>1.935744333333333</v>
       </c>
       <c r="H17">
-        <v>7.452945999999999</v>
+        <v>5.807233</v>
       </c>
       <c r="I17">
-        <v>0.2032405388430307</v>
+        <v>0.1329733678563256</v>
       </c>
       <c r="J17">
-        <v>0.2032405388430307</v>
+        <v>0.1329733678563257</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.455973333333334</v>
+        <v>6.673575666666667</v>
       </c>
       <c r="N17">
-        <v>28.36792</v>
+        <v>20.020727</v>
       </c>
       <c r="O17">
-        <v>0.2068547005114229</v>
+        <v>0.1592723389521969</v>
       </c>
       <c r="P17">
-        <v>0.2068547005114229</v>
+        <v>0.1592723389521969</v>
       </c>
       <c r="Q17">
-        <v>23.49161954359111</v>
+        <v>12.91833627982122</v>
       </c>
       <c r="R17">
-        <v>211.42457589232</v>
+        <v>116.265026518391</v>
       </c>
       <c r="S17">
-        <v>0.04204126079415533</v>
+        <v>0.02117897931682787</v>
       </c>
       <c r="T17">
-        <v>0.04204126079415533</v>
+        <v>0.02117897931682787</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.484315333333333</v>
+        <v>1.935744333333333</v>
       </c>
       <c r="H18">
-        <v>7.452945999999999</v>
+        <v>5.807233</v>
       </c>
       <c r="I18">
-        <v>0.2032405388430307</v>
+        <v>0.1329733678563256</v>
       </c>
       <c r="J18">
-        <v>0.2032405388430307</v>
+        <v>0.1329733678563257</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>85.957729</v>
       </c>
       <c r="O18">
-        <v>0.6267911178872841</v>
+        <v>0.683825744632005</v>
       </c>
       <c r="P18">
-        <v>0.6267911178872843</v>
+        <v>0.6838257446320051</v>
       </c>
       <c r="Q18">
-        <v>71.18203472440376</v>
+        <v>55.46406227265077</v>
       </c>
       <c r="R18">
-        <v>640.6383125196339</v>
+        <v>499.176560453857</v>
       </c>
       <c r="S18">
-        <v>0.1273893645414372</v>
+        <v>0.09093061229057739</v>
       </c>
       <c r="T18">
-        <v>0.1273893645414372</v>
+        <v>0.09093061229057742</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.484315333333333</v>
+        <v>1.935744333333333</v>
       </c>
       <c r="H19">
-        <v>7.452945999999999</v>
+        <v>5.807233</v>
       </c>
       <c r="I19">
-        <v>0.2032405388430307</v>
+        <v>0.1329733678563256</v>
       </c>
       <c r="J19">
-        <v>0.2032405388430307</v>
+        <v>0.1329733678563257</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1785286666666667</v>
+        <v>0.2748103333333333</v>
       </c>
       <c r="N19">
-        <v>0.535586</v>
+        <v>0.824431</v>
       </c>
       <c r="O19">
-        <v>0.003905414342260938</v>
+        <v>0.006558655620982129</v>
       </c>
       <c r="P19">
-        <v>0.003905414342260939</v>
+        <v>0.006558655620982129</v>
       </c>
       <c r="Q19">
-        <v>0.4435215040395555</v>
+        <v>0.5319625454914444</v>
       </c>
       <c r="R19">
-        <v>3.991693536355999</v>
+        <v>4.787662909423</v>
       </c>
       <c r="S19">
-        <v>0.0007937385153264135</v>
+        <v>0.0008721265265318144</v>
       </c>
       <c r="T19">
-        <v>0.0007937385153264136</v>
+        <v>0.0008721265265318147</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.484315333333333</v>
+        <v>1.935744333333333</v>
       </c>
       <c r="H20">
-        <v>7.452945999999999</v>
+        <v>5.807233</v>
       </c>
       <c r="I20">
-        <v>0.2032405388430307</v>
+        <v>0.1329733678563256</v>
       </c>
       <c r="J20">
-        <v>0.2032405388430307</v>
+        <v>0.1329733678563257</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.112385333333333</v>
+        <v>5.865251333333333</v>
       </c>
       <c r="N20">
-        <v>21.337156</v>
+        <v>17.595754</v>
       </c>
       <c r="O20">
-        <v>0.1555874034524036</v>
+        <v>0.1399807756834942</v>
       </c>
       <c r="P20">
-        <v>0.1555874034524036</v>
+        <v>0.1399807756834942</v>
       </c>
       <c r="Q20">
-        <v>17.66940794017511</v>
+        <v>11.35362703207578</v>
       </c>
       <c r="R20">
-        <v>159.024671461576</v>
+        <v>102.182643288682</v>
       </c>
       <c r="S20">
-        <v>0.03162166771485453</v>
+        <v>0.01861371517777507</v>
       </c>
       <c r="T20">
-        <v>0.03162166771485453</v>
+        <v>0.01861371517777508</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.484315333333333</v>
+        <v>1.935744333333333</v>
       </c>
       <c r="H21">
-        <v>7.452945999999999</v>
+        <v>5.807233</v>
       </c>
       <c r="I21">
-        <v>0.2032405388430307</v>
+        <v>0.1329733678563256</v>
       </c>
       <c r="J21">
-        <v>0.2032405388430307</v>
+        <v>0.1329733678563257</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.3136543333333333</v>
+        <v>0.4341923333333333</v>
       </c>
       <c r="N21">
-        <v>0.940963</v>
+        <v>1.302577</v>
       </c>
       <c r="O21">
-        <v>0.006861363806628402</v>
+        <v>0.01036248511132167</v>
       </c>
       <c r="P21">
-        <v>0.006861363806628403</v>
+        <v>0.01036248511132167</v>
       </c>
       <c r="Q21">
-        <v>0.7792162696664443</v>
+        <v>0.8404853488267777</v>
       </c>
       <c r="R21">
-        <v>7.012946426997999</v>
+        <v>7.564368139440999</v>
       </c>
       <c r="S21">
-        <v>0.001394507277257225</v>
+        <v>0.001377934544613474</v>
       </c>
       <c r="T21">
-        <v>0.001394507277257225</v>
+        <v>0.001377934544613475</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.81368</v>
+        <v>4.932366666666667</v>
       </c>
       <c r="H22">
-        <v>11.44104</v>
+        <v>14.7971</v>
       </c>
       <c r="I22">
-        <v>0.3119951673505575</v>
+        <v>0.3388223309632722</v>
       </c>
       <c r="J22">
-        <v>0.3119951673505576</v>
+        <v>0.3388223309632722</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.455973333333334</v>
+        <v>6.673575666666667</v>
       </c>
       <c r="N22">
-        <v>28.36792</v>
+        <v>20.020727</v>
       </c>
       <c r="O22">
-        <v>0.2068547005114229</v>
+        <v>0.1592723389521969</v>
       </c>
       <c r="P22">
-        <v>0.2068547005114229</v>
+        <v>0.1592723389521969</v>
       </c>
       <c r="Q22">
-        <v>36.06205638186668</v>
+        <v>32.91652216574445</v>
       </c>
       <c r="R22">
-        <v>324.5585074368</v>
+        <v>296.2486994917</v>
       </c>
       <c r="S22">
-        <v>0.06453766690331084</v>
+        <v>0.05396502514175575</v>
       </c>
       <c r="T22">
-        <v>0.06453766690331085</v>
+        <v>0.05396502514175575</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.81368</v>
+        <v>4.932366666666667</v>
       </c>
       <c r="H23">
-        <v>11.44104</v>
+        <v>14.7971</v>
       </c>
       <c r="I23">
-        <v>0.3119951673505575</v>
+        <v>0.3388223309632722</v>
       </c>
       <c r="J23">
-        <v>0.3119951673505576</v>
+        <v>0.3388223309632722</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>85.957729</v>
       </c>
       <c r="O23">
-        <v>0.6267911178872841</v>
+        <v>0.683825744632005</v>
       </c>
       <c r="P23">
-        <v>0.6267911178872843</v>
+        <v>0.6838257446320051</v>
       </c>
       <c r="Q23">
-        <v>109.2717573109067</v>
+        <v>141.3250124206556</v>
       </c>
       <c r="R23">
-        <v>983.4458157981601</v>
+        <v>1271.9251117859</v>
       </c>
       <c r="S23">
-        <v>0.1955557997190863</v>
+        <v>0.2316954327689112</v>
       </c>
       <c r="T23">
-        <v>0.1955557997190863</v>
+        <v>0.2316954327689113</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.81368</v>
+        <v>4.932366666666667</v>
       </c>
       <c r="H24">
-        <v>11.44104</v>
+        <v>14.7971</v>
       </c>
       <c r="I24">
-        <v>0.3119951673505575</v>
+        <v>0.3388223309632722</v>
       </c>
       <c r="J24">
-        <v>0.3119951673505576</v>
+        <v>0.3388223309632722</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.1785286666666667</v>
+        <v>0.2748103333333333</v>
       </c>
       <c r="N24">
-        <v>0.535586</v>
+        <v>0.824431</v>
       </c>
       <c r="O24">
-        <v>0.003905414342260938</v>
+        <v>0.006558655620982129</v>
       </c>
       <c r="P24">
-        <v>0.003905414342260939</v>
+        <v>0.006558655620982129</v>
       </c>
       <c r="Q24">
-        <v>0.6808512054933333</v>
+        <v>1.355465327788889</v>
       </c>
       <c r="R24">
-        <v>6.127660849440001</v>
+        <v>12.1991879501</v>
       </c>
       <c r="S24">
-        <v>0.001218470401286969</v>
+        <v>0.002222218985486532</v>
       </c>
       <c r="T24">
-        <v>0.001218470401286969</v>
+        <v>0.002222218985486533</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.81368</v>
+        <v>4.932366666666667</v>
       </c>
       <c r="H25">
-        <v>11.44104</v>
+        <v>14.7971</v>
       </c>
       <c r="I25">
-        <v>0.3119951673505575</v>
+        <v>0.3388223309632722</v>
       </c>
       <c r="J25">
-        <v>0.3119951673505576</v>
+        <v>0.3388223309632722</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.112385333333333</v>
+        <v>5.865251333333333</v>
       </c>
       <c r="N25">
-        <v>21.337156</v>
+        <v>17.595754</v>
       </c>
       <c r="O25">
-        <v>0.1555874034524036</v>
+        <v>0.1399807756834942</v>
       </c>
       <c r="P25">
-        <v>0.1555874034524036</v>
+        <v>0.1399807756834942</v>
       </c>
       <c r="Q25">
-        <v>27.12436169802667</v>
+        <v>28.92957016815556</v>
       </c>
       <c r="R25">
-        <v>244.11925528224</v>
+        <v>260.3661315134</v>
       </c>
       <c r="S25">
-        <v>0.04854251797777138</v>
+        <v>0.04742861270712842</v>
       </c>
       <c r="T25">
-        <v>0.04854251797777138</v>
+        <v>0.04742861270712843</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.81368</v>
+        <v>4.932366666666667</v>
       </c>
       <c r="H26">
-        <v>11.44104</v>
+        <v>14.7971</v>
       </c>
       <c r="I26">
-        <v>0.3119951673505575</v>
+        <v>0.3388223309632722</v>
       </c>
       <c r="J26">
-        <v>0.3119951673505576</v>
+        <v>0.3388223309632722</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.3136543333333333</v>
+        <v>0.4341923333333333</v>
       </c>
       <c r="N26">
-        <v>0.940963</v>
+        <v>1.302577</v>
       </c>
       <c r="O26">
-        <v>0.006861363806628402</v>
+        <v>0.01036248511132167</v>
       </c>
       <c r="P26">
-        <v>0.006861363806628403</v>
+        <v>0.01036248511132167</v>
       </c>
       <c r="Q26">
-        <v>1.196177257946667</v>
+        <v>2.141595791855555</v>
       </c>
       <c r="R26">
-        <v>10.76559532152</v>
+        <v>19.2743621267</v>
       </c>
       <c r="S26">
-        <v>0.002140712349102087</v>
+        <v>0.003511041359990212</v>
       </c>
       <c r="T26">
-        <v>0.002140712349102087</v>
+        <v>0.003511041359990213</v>
       </c>
     </row>
   </sheetData>
